--- a/APPENDIX A. Subbasins characteristics.xlsx
+++ b/APPENDIX A. Subbasins characteristics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Sub-basin</t>
   </si>
@@ -67,13 +67,16 @@
     <t>CN</t>
   </si>
   <si>
-    <t>Lag time</t>
-  </si>
-  <si>
-    <t>Intial Abstraction</t>
-  </si>
-  <si>
-    <t>Longest Flow path</t>
+    <t>Longest Flow path (ft)</t>
+  </si>
+  <si>
+    <t>Lag time (min)</t>
+  </si>
+  <si>
+    <t>Intial Abstraction (in)</t>
+  </si>
+  <si>
+    <t>Appendix A. Subbasin Characteristics values used in the model</t>
   </si>
 </sst>
 </file>
@@ -81,9 +84,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +107,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,12 +122,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -143,51 +163,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,258 +558,467 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="H3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B4" s="8">
         <v>0.87644</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C4" s="8">
         <v>7.19</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="8">
         <v>0.38800000000000001</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E4" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F4" s="8">
         <v>0.33200000000000002</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="H4" s="20">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="I4" s="25">
+        <v>8573.92</v>
+      </c>
+      <c r="J4" s="20">
+        <v>21.6</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="8">
         <v>0.51168999999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="8">
         <v>6.29</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="8">
         <v>0.39900000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="8">
         <v>0.373</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="H5" s="20">
+        <v>69.64</v>
+      </c>
+      <c r="I5" s="25">
+        <v>8049.12</v>
+      </c>
+      <c r="J5" s="20">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="8">
         <v>0.21597</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="8">
         <v>7.46</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="8">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="8">
         <v>0.32300000000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="H6" s="20">
+        <v>69.94</v>
+      </c>
+      <c r="I6" s="25">
+        <v>8013.04</v>
+      </c>
+      <c r="J6" s="20">
+        <v>18.03</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="8">
         <v>1.6314</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="8">
         <v>7.72</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="8">
         <v>0.39400000000000002</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="8">
         <v>0.29899999999999999</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="H7" s="20">
+        <v>68.33</v>
+      </c>
+      <c r="I7" s="25">
+        <v>8180.32</v>
+      </c>
+      <c r="J7" s="20">
+        <v>20.09</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="8">
         <v>0.77270000000000005</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="8">
         <v>7.42</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="8">
         <v>0.371</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="8">
         <v>0.26</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="H8" s="20">
+        <v>69.73</v>
+      </c>
+      <c r="I8" s="25">
+        <v>7521.04</v>
+      </c>
+      <c r="J8" s="20">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="8">
         <v>2.1486000000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="8">
         <v>7.36</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="8">
         <v>0.35899999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="8">
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="8">
         <v>0.51400000000000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="H9" s="20">
+        <v>74.62</v>
+      </c>
+      <c r="I9" s="25">
+        <v>7412.8</v>
+      </c>
+      <c r="J9" s="20">
+        <v>15.64</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B10" s="12">
         <v>1.0374000000000001</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C10" s="12">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="12">
         <v>0.36899999999999999</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E10" s="12">
         <v>0.26</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F10" s="12">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="H10" s="23">
+        <v>78.52</v>
+      </c>
+      <c r="I10" s="23">
+        <v>7216</v>
+      </c>
+      <c r="J10" s="23">
+        <v>13.89</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="G1:G2"/>
+  <mergeCells count="12">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>